--- a/Test status report problem_user.xlsx
+++ b/Test status report problem_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT School\Individual Project\Test status reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC2A8C91-EA5B-43CF-B8D6-F7452C6919D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AC3260-66F0-423C-BDE0-40B0C69B6261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="167">
   <si>
     <t>Test Suite/Scenario</t>
   </si>
@@ -512,15 +512,6 @@
     <t>First name: Blake
 Zip/PostalCode: 
 CM13 3EL</t>
-  </si>
-  <si>
-    <t>Last name: Jackson 
-Zip/PostalCode: 
-1110-1060</t>
-  </si>
-  <si>
-    <t>First name: Blake
-Second name: JACKSON</t>
   </si>
   <si>
     <t>Displayed message: "Epic sadface: Username and password do not match any user in this service"</t>
@@ -1286,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1357,10 +1348,10 @@
         <v>64</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>95</v>
@@ -1369,7 +1360,7 @@
         <v>95</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K2" s="17"/>
     </row>
@@ -1391,16 +1382,16 @@
         <v>65</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K3" s="17"/>
     </row>
@@ -1422,7 +1413,7 @@
         <v>66</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>96</v>
@@ -1431,7 +1422,7 @@
         <v>96</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K4" s="17"/>
     </row>
@@ -1453,16 +1444,16 @@
         <v>67</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K5" s="17"/>
     </row>
@@ -1484,7 +1475,7 @@
         <v>68</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>97</v>
@@ -1493,7 +1484,7 @@
         <v>97</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K6" s="17"/>
     </row>
@@ -1512,19 +1503,19 @@
         <v>64</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G7" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>150</v>
       </c>
       <c r="K7" s="17"/>
     </row>
@@ -1543,19 +1534,19 @@
         <v>64</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K8" s="17"/>
     </row>
@@ -1579,19 +1570,19 @@
         <v>69</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>98</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J9" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>151</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1612,19 +1603,19 @@
         <v>70</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>99</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1645,7 +1636,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>100</v>
@@ -1654,7 +1645,7 @@
         <v>100</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K11" s="17"/>
     </row>
@@ -1676,7 +1667,7 @@
         <v>72</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>101</v>
@@ -1685,7 +1676,7 @@
         <v>101</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K12" s="17"/>
     </row>
@@ -1707,19 +1698,19 @@
         <v>73</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>102</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1740,19 +1731,19 @@
         <v>75</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>103</v>
       </c>
       <c r="I14" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1773,19 +1764,19 @@
         <v>74</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>104</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1806,7 +1797,7 @@
         <v>76</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>105</v>
@@ -1815,7 +1806,7 @@
         <v>105</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K16" s="17"/>
     </row>
@@ -1837,19 +1828,19 @@
         <v>77</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>106</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1870,19 +1861,19 @@
         <v>78</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>107</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1903,7 +1894,7 @@
         <v>79</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>108</v>
@@ -1912,7 +1903,7 @@
         <v>108</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K19" s="17"/>
     </row>
@@ -1934,7 +1925,7 @@
         <v>80</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>109</v>
@@ -1943,7 +1934,7 @@
         <v>109</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K20" s="17"/>
     </row>
@@ -1965,7 +1956,7 @@
         <v>81</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>110</v>
@@ -1974,7 +1965,7 @@
         <v>110</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K21" s="17"/>
     </row>
@@ -1996,17 +1987,17 @@
         <v>82</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>105</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2027,17 +2018,17 @@
         <v>124</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>107</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2060,7 +2051,7 @@
         <v>84</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>111</v>
@@ -2069,7 +2060,7 @@
         <v>111</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K24" s="17"/>
     </row>
@@ -2091,7 +2082,7 @@
         <v>83</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>108</v>
@@ -2100,7 +2091,7 @@
         <v>108</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K25" s="17"/>
     </row>
@@ -2122,7 +2113,7 @@
         <v>85</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>112</v>
@@ -2131,7 +2122,7 @@
         <v>112</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K26" s="17"/>
     </row>
@@ -2153,19 +2144,19 @@
         <v>86</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2186,7 +2177,7 @@
         <v>87</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>113</v>
@@ -2195,7 +2186,7 @@
         <v>113</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K28" s="17"/>
     </row>
@@ -2217,17 +2208,17 @@
         <v>88</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>113</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2248,7 +2239,7 @@
         <v>89</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>114</v>
@@ -2257,7 +2248,7 @@
         <v>114</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K30" s="17"/>
     </row>
@@ -2278,22 +2269,22 @@
         <v>64</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>115</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2313,18 +2304,16 @@
       <c r="F32" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="19" t="s">
-        <v>126</v>
-      </c>
+      <c r="G32" s="19"/>
       <c r="H32" s="20" t="s">
         <v>116</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2354,7 +2343,7 @@
         <v>117</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K33" s="17"/>
     </row>
@@ -2373,20 +2362,18 @@
         <v>64</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>127</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G34" s="19"/>
       <c r="H34" s="20" t="s">
         <v>118</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2407,7 +2394,7 @@
         <v>92</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H35" s="20" t="s">
         <v>119</v>
@@ -2416,7 +2403,7 @@
         <v>119</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K35" s="15"/>
     </row>
@@ -2437,20 +2424,18 @@
         <v>64</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G36" s="19"/>
       <c r="H36" s="20" t="s">
         <v>120</v>
       </c>
       <c r="I36" s="19"/>
       <c r="J36" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2468,20 +2453,18 @@
         <v>64</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G37" s="19"/>
       <c r="H37" s="20" t="s">
         <v>121</v>
       </c>
       <c r="I37" s="19"/>
       <c r="J37" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2501,18 +2484,16 @@
       <c r="F38" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="G38" s="19" t="s">
-        <v>144</v>
-      </c>
+      <c r="G38" s="19"/>
       <c r="H38" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I38" s="19"/>
       <c r="J38" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2530,20 +2511,18 @@
         <v>64</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>144</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G39" s="19"/>
       <c r="H39" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I39" s="19"/>
       <c r="J39" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2563,20 +2542,18 @@
         <v>64</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G40" s="19"/>
       <c r="H40" s="20" t="s">
         <v>122</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2594,20 +2571,18 @@
         <v>64</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>144</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G41" s="19"/>
       <c r="H41" s="20" t="s">
         <v>123</v>
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
